--- a/brWheel_my/docs/RCM_mode.xlsx
+++ b/brWheel_my/docs/RCM_mode.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,23 +485,23 @@
       </c>
       <c r="F2" s="1">
         <f>B14/B2</f>
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G2" s="1">
         <f>(C2/100)*F2</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="1">
         <f>(D2/100)*F2</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I2" s="1">
         <f>(E2/100)*F2</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="J2" s="1">
         <f>(I2-G2)/2</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -526,23 +526,23 @@
       </c>
       <c r="F3" s="1">
         <f>B14/B3</f>
-        <v>14999.999999999998</v>
+        <v>29999.999999999996</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G5" si="1">(C3/100)*F3</f>
-        <v>999.99999999999989</v>
+        <v>1999.9999999999998</v>
       </c>
       <c r="H3" s="1">
         <f>(D3/100)*F3</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I5" si="2">(E3/100)*F3</f>
-        <v>1999.9999999999998</v>
+        <v>3999.9999999999995</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J5" si="3">(I3-G3)/2</f>
-        <v>499.99999999999994</v>
+        <v>999.99999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -567,23 +567,23 @@
       </c>
       <c r="F4" s="1">
         <f>B14/B4</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4" si="4">(D4/100)*F4</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -608,23 +608,23 @@
       </c>
       <c r="F5" s="1">
         <f>B14/B5</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="1">
         <f>(D5/100)*F5</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
       </c>
       <c r="B14" s="1">
         <f>B11*1000000/B12/B13</f>
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>
